--- a/chart symptoms1.xlsx
+++ b/chart symptoms1.xlsx
@@ -14,26 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Disease</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Signs &amp; symptoms</t>
-    </r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+  <si>
+    <t>Diseases</t>
+  </si>
+  <si>
+    <t>symptom</t>
+  </si>
+  <si>
+    <t>symptom1</t>
+  </si>
+  <si>
+    <t>symptom2</t>
   </si>
   <si>
     <r>
@@ -66,114 +58,16 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Chicken pox — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">varicella zoster </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">virus; viral
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>disease</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Esp seen winter &amp; spring. Resp </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">symptoms, malaise (not feeling well), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">low-grade fever followed by rash </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">starting on face &amp; trunk spreading to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">rest of body. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Fluid filled vesicles
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">rupture &amp; scab over within </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>week.</t>
-    </r>
+    <t xml:space="preserve">Chicken pox </t>
+  </si>
+  <si>
+    <t>trouble with Respiration</t>
+  </si>
+  <si>
+    <t>not feeling well</t>
+  </si>
+  <si>
+    <t>fever</t>
   </si>
   <si>
     <r>
@@ -331,56 +225,16 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Common cold </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(viral rhinitis)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">&gt;200 strains of viruses cause the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">common cold. Course mild, often </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">without fever and without muscle </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>aching.</t>
-    </r>
+    <t xml:space="preserve">Common cold </t>
+  </si>
+  <si>
+    <t>Cold</t>
+  </si>
+  <si>
+    <t>without muscle aching.</t>
+  </si>
+  <si>
+    <t>without fever</t>
   </si>
   <si>
     <r>
@@ -472,55 +326,13 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">The clinical syndrome begins with </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">tearing, irritation &amp; redness of eye(s) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">followed by edema of lids,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">photophobia (light sensitivity) &amp; pus </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">drainage. Course lasts from 2 days up </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>to 2-3 weeks.</t>
-    </r>
+    <t>redness of eyes</t>
+  </si>
+  <si>
+    <t>irritation of eyes</t>
+  </si>
+  <si>
+    <t>light sensitivity</t>
   </si>
   <si>
     <r>
@@ -708,105 +520,16 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Hepatitis — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">inflammation of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">the liver due to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">multiple causes </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">(virus most </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>common)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Signs &amp; symptoms generally same for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">all forms:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Headache; fever; weakness; joint </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">pain; anorexia; nausea; vomiting; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>RUQ pain; jaundice; dark urine; clay-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>colored stools</t>
-    </r>
+    <t>Hepatitis</t>
+  </si>
+  <si>
+    <t>Headache; fever; weakness; joint pain; anorexia; nausea; ; RUQ pain; ; dark urine; clay-colored stools</t>
+  </si>
+  <si>
+    <t>jaundice</t>
+  </si>
+  <si>
+    <t>vomiting</t>
   </si>
   <si>
     <r>
@@ -861,38 +584,13 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">May have no symptoms. Adults may </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">have abdominal pain, loss of appetite, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">nausea, diarrhea, light colored stools, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>dark urine, fatigue, fever &amp; jaundice.</t>
-    </r>
+    <t xml:space="preserve"> diarrhea, , dark urine</t>
+  </si>
+  <si>
+    <t>fever + jaundice.</t>
+  </si>
+  <si>
+    <t>light colored stools</t>
   </si>
   <si>
     <r>
@@ -994,10 +692,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1019,6 +717,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1036,8 +763,39 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1051,74 +809,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1132,36 +854,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1172,13 +870,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1190,73 +996,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1268,91 +1014,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1377,6 +1075,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1405,41 +1118,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1461,6 +1144,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1469,171 +1176,159 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1960,120 +1655,153 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21.1904761904762" customWidth="1"/>
-    <col min="2" max="2" width="41.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="20.7904761904762" customWidth="1"/>
-    <col min="4" max="4" width="20.7428571428571" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="2" max="4" width="70.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="20.7904761904762" customWidth="1"/>
+    <col min="6" max="6" width="20.7428571428571" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
+    <row r="2" ht="38" customHeight="1" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" ht="135" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
+    <row r="3" ht="28" customHeight="1" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" ht="45" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
+    <row r="4" ht="39" customHeight="1" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="5" ht="135" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
+    <row r="5" ht="45" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="6" ht="60" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" ht="60" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>27</v>
+    <row r="6" ht="45" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/chart symptoms1.xlsx
+++ b/chart symptoms1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Diseases</t>
   </si>
@@ -58,7 +58,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Chicken pox </t>
+    <t>Chicken pox</t>
   </si>
   <si>
     <t>trouble with Respiration</t>
@@ -566,25 +566,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Hepatitis A — </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>infectious or viral</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> diarrhea, , dark urine</t>
+    <t>Hepatitis A — infectious or viral</t>
+  </si>
+  <si>
+    <t>diarrhea, , dark urine</t>
   </si>
   <si>
     <t>fever + jaundice.</t>
@@ -685,6 +670,32 @@
       </rPr>
       <t>handwashing.</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Influenza </t>
+  </si>
+  <si>
+    <t>nasal
+discharge</t>
+  </si>
+  <si>
+    <t>dry cough</t>
+  </si>
+  <si>
+    <t>mild sore throat</t>
+  </si>
+  <si>
+    <t>Monkeypox</t>
+  </si>
+  <si>
+    <t>backache</t>
+  </si>
+  <si>
+    <t>swollen lymph</t>
+  </si>
+  <si>
+    <t>muscle
+aches</t>
   </si>
 </sst>
 </file>
@@ -692,10 +703,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -711,9 +722,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -725,7 +736,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -740,7 +797,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -754,11 +818,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -770,19 +841,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -793,73 +871,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -870,187 +881,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1079,6 +1090,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1090,6 +1110,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1111,18 +1140,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1138,15 +1160,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1168,11 +1181,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1181,152 +1192,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1335,6 +1346,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1655,13 +1669,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21.1904761904762" customWidth="1"/>
     <col min="2" max="4" width="70.2857142857143" customWidth="1"/>
@@ -1804,6 +1818,34 @@
         <v>39</v>
       </c>
     </row>
+    <row r="7" ht="30" spans="1:4">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" ht="30" spans="1:4">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="1.25" right="1.25" top="1" bottom="0.791666666666667" header="0.25" footer="0.25"/>
   <headerFooter/>
